--- a/ppe_un_Julia.xlsx
+++ b/ppe_un_Julia.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2971E49-74DC-47DA-9D9C-FE5842C01DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA029F12-BF61-4A7E-A15C-C08861EBC1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="SHEEET 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$D$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$991</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="34">
   <si>
     <t>Unidade_Ensino</t>
   </si>
@@ -120,13 +123,19 @@
   <si>
     <t>media</t>
   </si>
+  <si>
+    <t>TAXA DE RETENÇÃO</t>
+  </si>
+  <si>
+    <t>UNIDADE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -276,22 +285,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -301,34 +304,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -347,20 +338,50 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,6 +888,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1347786576"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1135,6 +1157,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1178,6 +1205,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1221,6 +1253,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1264,6 +1301,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1307,6 +1349,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1350,6 +1397,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1396,6 +1448,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1442,6 +1499,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1488,6 +1550,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1534,6 +1601,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1580,6 +1652,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1769,6 +1846,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1812,6 +1894,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1855,6 +1942,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1898,6 +1990,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1941,6 +2038,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1984,6 +2086,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2030,6 +2137,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2076,6 +2188,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2122,6 +2239,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2168,6 +2290,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2214,6 +2341,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-7B4A-4A3A-AB77-783142D3DE45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3927,15 +4059,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="31"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="71.140625" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3947,26 +4079,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="1">
         <v>2009</v>
       </c>
@@ -4005,44 +4137,44 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <f>AVERAGE(D2:D11)</f>
         <v>34.024484337882477</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="H2" s="30"/>
+      <c r="I2" s="12">
         <f>SUMIF($B:$B,I1,$D:$D)</f>
         <v>6.3492099766443779</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="12">
         <f t="shared" ref="J2:P2" si="0">SUMIF($B:$B,J1,$D:$D)</f>
         <v>60.109630997717034</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="12">
         <f t="shared" si="0"/>
         <v>160.90222819604631</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="12">
         <f>SUMIF($B:$B,L1,$D:$D)</f>
         <v>270.77008424378062</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="12">
         <f>SUMIF($B:$B,M1,$D:$D)</f>
         <v>259.09434771460997</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="12">
         <f>SUMIF($B:$B,N1,$D:$D)</f>
         <v>283.7564455042675</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="12">
         <f t="shared" si="0"/>
         <v>298.56421986864393</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="13">
         <f t="shared" si="0"/>
         <v>356.85656560192717</v>
       </c>
@@ -4060,23 +4192,23 @@
       <c r="D3" s="2">
         <v>13.229018492176387</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="15">
         <f>AVERAGE(I2:P2)</f>
         <v>212.05034151295462</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4091,8 +4223,8 @@
       <c r="D4" s="2">
         <v>32.972972972972975</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4107,43 +4239,43 @@
       <c r="D5" s="2">
         <v>42.607428987618356</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4160,51 +4292,51 @@
       <c r="D6" s="2">
         <v>37.032144429766625</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10">
+      <c r="E6" s="25"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
         <f>SUMIF($A:$A,I5,$D:$D)</f>
         <v>340.24484337882478</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <f t="shared" ref="J6:S6" si="1">SUMIF($A:$A,J5,$D:$D)</f>
         <v>52.091205670368716</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>123.41307010669576</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <f t="shared" si="1"/>
         <v>262.75894892202626</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>403.88813471235278</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="8">
         <f t="shared" si="1"/>
         <v>179.03079981793601</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="8">
         <f t="shared" si="1"/>
         <v>215.8299693077615</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <f t="shared" si="1"/>
         <v>212.58250658562881</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="8">
         <f t="shared" si="1"/>
         <v>266.76062476691914</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="8">
         <f t="shared" si="1"/>
         <v>278.67969861487438</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <f t="shared" si="1"/>
         <v>281.80513739394269</v>
       </c>
@@ -4222,53 +4354,53 @@
       <c r="D7" s="2">
         <v>42.725080385852088</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="12" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14">
+      <c r="H7" s="27"/>
+      <c r="I7" s="10">
         <f>E2</f>
         <v>34.024484337882477</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <f>E12</f>
         <v>8.6818676117281193</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <f>E22</f>
         <v>17.630438586670824</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <f>E32</f>
         <v>29.19543876911403</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="10">
         <f>E42</f>
         <v>40.388813471235281</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="10">
         <f>E52</f>
         <v>22.378849977242002</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="10">
         <f>E62</f>
         <v>23.981107700862388</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="10">
         <f>E72</f>
         <v>26.572813323203601</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="10">
         <f>E82</f>
         <v>29.64006941854657</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="10">
         <f>E92</f>
         <v>39.811385516410624</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="11">
         <f>E102</f>
         <v>28.180513739394268</v>
       </c>
@@ -4286,8 +4418,8 @@
       <c r="D8" s="2">
         <v>41.818734793187346</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4302,8 +4434,8 @@
       <c r="D9" s="2">
         <v>40.712126301645952</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4318,8 +4450,8 @@
       <c r="D10" s="2">
         <v>45.298392424576086</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4334,8 +4466,8 @@
       <c r="D11" s="2">
         <v>43.848944591029024</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4347,11 +4479,11 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <f>AVERAGE(D12:D21)</f>
         <v>8.6818676117281193</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4363,8 +4495,8 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4376,8 +4508,8 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4389,8 +4521,8 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4405,8 +4537,8 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4421,8 +4553,8 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4437,8 +4569,8 @@
       <c r="D18" s="2">
         <v>9.0066225165562912</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4453,8 +4585,8 @@
       <c r="D19" s="2">
         <v>6.1751152073732722</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4469,8 +4601,8 @@
       <c r="D20" s="2">
         <v>11.254295532646049</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4485,8 +4617,8 @@
       <c r="D21" s="2">
         <v>25.655172413793103</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4498,11 +4630,11 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <f>AVERAGE(D22:D31)</f>
         <v>17.630438586670824</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4514,8 +4646,8 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4527,8 +4659,8 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4543,8 +4675,8 @@
       <c r="D25" s="2">
         <v>38.04347826086957</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4559,8 +4691,8 @@
       <c r="D26" s="2">
         <v>18.584070796460178</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4575,8 +4707,8 @@
       <c r="D27" s="2">
         <v>16.494845360824741</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4591,8 +4723,8 @@
       <c r="D28" s="2">
         <v>8.8073394495412849</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4607,8 +4739,8 @@
       <c r="D29" s="2">
         <v>0.55865921787709494</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4623,8 +4755,8 @@
       <c r="D30" s="2">
         <v>9.8241985522233719</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="30"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4639,8 +4771,8 @@
       <c r="D31" s="2">
         <v>31.100478468899524</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4652,11 +4784,11 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="24">
         <f t="shared" ref="E32" si="2">AVERAGE(D32:D41)</f>
         <v>29.19543876911403</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4671,8 +4803,8 @@
       <c r="D33" s="2">
         <v>5.241935483870968</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4687,8 +4819,8 @@
       <c r="D34" s="2">
         <v>34.660033167495854</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4703,8 +4835,8 @@
       <c r="D35" s="2">
         <v>10.059880239520957</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4719,8 +4851,8 @@
       <c r="D36" s="2">
         <v>22.89855072463768</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4735,8 +4867,8 @@
       <c r="D37" s="2">
         <v>19.890260631001372</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4751,8 +4883,8 @@
       <c r="D38" s="2">
         <v>27.493438320209972</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -4767,8 +4899,8 @@
       <c r="D39" s="2">
         <v>50.759878419452889</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="30"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -4783,8 +4915,8 @@
       <c r="D40" s="2">
         <v>46.95837780149413</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -4799,8 +4931,8 @@
       <c r="D41" s="2">
         <v>44.796594134342477</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -4815,11 +4947,11 @@
       <c r="D42" s="2">
         <v>3.1770045385779122</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="24">
         <f t="shared" ref="E42" si="3">AVERAGE(D42:D51)</f>
         <v>40.388813471235281</v>
       </c>
-      <c r="F42" s="29"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -4834,8 +4966,8 @@
       <c r="D43" s="2">
         <v>22.750642673521853</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -4850,8 +4982,8 @@
       <c r="D44" s="2">
         <v>49.762131303520455</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -4866,8 +4998,8 @@
       <c r="D45" s="2">
         <v>49.171686746987952</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -4882,8 +5014,8 @@
       <c r="D46" s="2">
         <v>54.584837545126355</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -4898,8 +5030,8 @@
       <c r="D47" s="2">
         <v>57.333333333333336</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -4914,8 +5046,8 @@
       <c r="D48" s="2">
         <v>42.766151046405824</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -4930,8 +5062,8 @@
       <c r="D49" s="2">
         <v>33.541098558628754</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -4946,8 +5078,8 @@
       <c r="D50" s="2">
         <v>44.148271553519372</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="30"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4962,8 +5094,8 @@
       <c r="D51" s="2">
         <v>46.652977412731005</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="30"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -4975,11 +5107,11 @@
       <c r="C52" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E52" s="24">
         <f t="shared" ref="E52" si="4">AVERAGE(D52:D61)</f>
         <v>22.378849977242002</v>
       </c>
-      <c r="F52" s="29"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -4991,8 +5123,8 @@
       <c r="C53" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="30"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -5007,8 +5139,8 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5023,8 +5155,8 @@
       <c r="D55" s="2">
         <v>6.8479355488418934</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="30"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -5039,8 +5171,8 @@
       <c r="D56" s="2">
         <v>13.333333333333334</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="30"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -5055,8 +5187,8 @@
       <c r="D57" s="2">
         <v>19.188596491228072</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -5071,8 +5203,8 @@
       <c r="D58" s="2">
         <v>14.686825053995682</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -5087,8 +5219,8 @@
       <c r="D59" s="2">
         <v>48.352626892252893</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="30"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -5103,8 +5235,8 @@
       <c r="D60" s="2">
         <v>39.121482498284145</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -5119,8 +5251,8 @@
       <c r="D61" s="2">
         <v>37.5</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="30"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -5132,11 +5264,11 @@
       <c r="C62" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="24">
         <f t="shared" ref="E62" si="5">AVERAGE(D62:D71)</f>
         <v>23.981107700862388</v>
       </c>
-      <c r="F62" s="29"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -5151,8 +5283,8 @@
       <c r="D63" s="2">
         <v>4.9046321525885563</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -5167,8 +5299,8 @@
       <c r="D64" s="2">
         <v>14.076246334310852</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="30"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -5183,8 +5315,8 @@
       <c r="D65" s="2">
         <v>22.988505747126435</v>
       </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -5199,8 +5331,8 @@
       <c r="D66" s="2">
         <v>27.298050139275766</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -5215,8 +5347,8 @@
       <c r="D67" s="2">
         <v>31.215970961887479</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -5231,8 +5363,8 @@
       <c r="D68" s="2">
         <v>33.835845896147404</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="30"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -5247,8 +5379,8 @@
       <c r="D69" s="2">
         <v>24.644842495367509</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="30"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -5263,8 +5395,8 @@
       <c r="D70" s="2">
         <v>31.319000581057526</v>
       </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -5279,8 +5411,8 @@
       <c r="D71" s="2">
         <v>25.546875000000004</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="30"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -5292,11 +5424,11 @@
       <c r="C72" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="26">
+      <c r="E72" s="24">
         <f t="shared" ref="E72" si="6">AVERAGE(D72:D81)</f>
         <v>26.572813323203601</v>
       </c>
-      <c r="F72" s="29"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -5308,8 +5440,8 @@
       <c r="C73" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="30"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -5324,8 +5456,8 @@
       <c r="D74" s="2">
         <v>0</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="30"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -5340,8 +5472,8 @@
       <c r="D75" s="2">
         <v>38.542766631467792</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="30"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -5356,8 +5488,8 @@
       <c r="D76" s="2">
         <v>6.9238377843719086</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="30"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -5372,8 +5504,8 @@
       <c r="D77" s="2">
         <v>20.255474452554743</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="30"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -5388,8 +5520,8 @@
       <c r="D78" s="2">
         <v>18.425460636515915</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="30"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -5404,8 +5536,8 @@
       <c r="D79" s="2">
         <v>38.066001534919423</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="30"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -5420,8 +5552,8 @@
       <c r="D80" s="2">
         <v>42.818057455540355</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="30"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -5436,8 +5568,8 @@
       <c r="D81" s="2">
         <v>47.550908090258673</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="30"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -5449,11 +5581,11 @@
       <c r="C82" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="26">
+      <c r="E82" s="24">
         <f t="shared" ref="E82" si="7">AVERAGE(D82:D91)</f>
         <v>29.64006941854657</v>
       </c>
-      <c r="F82" s="29"/>
+      <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -5468,8 +5600,8 @@
       <c r="D83" s="2">
         <v>2.6845637583892619</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="30"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -5484,8 +5616,8 @@
       <c r="D84" s="2">
         <v>4.6168958742632613</v>
       </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="30"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="22"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -5500,8 +5632,8 @@
       <c r="D85" s="2">
         <v>35.055096418732781</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="30"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="22"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -5516,8 +5648,8 @@
       <c r="D86" s="2">
         <v>46.462116468378213</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="30"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -5532,8 +5664,8 @@
       <c r="D87" s="2">
         <v>41.218274111675129</v>
       </c>
-      <c r="E87" s="27"/>
-      <c r="F87" s="30"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -5548,8 +5680,8 @@
       <c r="D88" s="2">
         <v>34.826203208556151</v>
       </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="30"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="22"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -5564,8 +5696,8 @@
       <c r="D89" s="2">
         <v>28.719512195121951</v>
       </c>
-      <c r="E89" s="27"/>
-      <c r="F89" s="30"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="22"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -5580,8 +5712,8 @@
       <c r="D90" s="2">
         <v>32.343387470997683</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="30"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -5596,8 +5728,8 @@
       <c r="D91" s="2">
         <v>40.834575260804769</v>
       </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="30"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -5609,11 +5741,11 @@
       <c r="C92" t="s">
         <v>25</v>
       </c>
-      <c r="E92" s="26">
+      <c r="E92" s="24">
         <f t="shared" ref="E92" si="8">AVERAGE(D92:D101)</f>
         <v>39.811385516410624</v>
       </c>
-      <c r="F92" s="29"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5625,8 +5757,8 @@
       <c r="C93" t="s">
         <v>25</v>
       </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="30"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -5638,8 +5770,8 @@
       <c r="C94" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="30"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="22"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -5654,8 +5786,8 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="27"/>
-      <c r="F95" s="30"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -5670,8 +5802,8 @@
       <c r="D96" s="2">
         <v>4.8034934497816595</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="30"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -5686,8 +5818,8 @@
       <c r="D97" s="2">
         <v>7.9801450935471561</v>
       </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="30"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="22"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -5702,8 +5834,8 @@
       <c r="D98" s="2">
         <v>34.656942193408966</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="30"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="22"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -5718,8 +5850,8 @@
       <c r="D99" s="2">
         <v>48.86831275720165</v>
       </c>
-      <c r="E99" s="27"/>
-      <c r="F99" s="30"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="22"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -5734,8 +5866,8 @@
       <c r="D100" s="2">
         <v>94.200563834071687</v>
       </c>
-      <c r="E100" s="27"/>
-      <c r="F100" s="30"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="22"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -5750,8 +5882,8 @@
       <c r="D101" s="2">
         <v>88.170241286863273</v>
       </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="30"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="22"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -5766,11 +5898,11 @@
       <c r="D102" s="2">
         <v>3.1722054380664653</v>
       </c>
-      <c r="E102" s="26">
+      <c r="E102" s="24">
         <f t="shared" ref="E102" si="9">AVERAGE(D102:D111)</f>
         <v>28.180513739394268</v>
       </c>
-      <c r="F102" s="29"/>
+      <c r="F102" s="21"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -5785,8 +5917,8 @@
       <c r="D103" s="2">
         <v>11.298838437170012</v>
       </c>
-      <c r="E103" s="27"/>
-      <c r="F103" s="30"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="22"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -5801,8 +5933,8 @@
       <c r="D104" s="2">
         <v>24.813948543482883</v>
       </c>
-      <c r="E104" s="27"/>
-      <c r="F104" s="30"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="22"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -5817,8 +5949,8 @@
       <c r="D105" s="2">
         <v>27.453305662614884</v>
       </c>
-      <c r="E105" s="27"/>
-      <c r="F105" s="30"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="22"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -5833,8 +5965,8 @@
       <c r="D106" s="2">
         <v>27.173913043478258</v>
       </c>
-      <c r="E106" s="27"/>
-      <c r="F106" s="30"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="22"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -5849,8 +5981,8 @@
       <c r="D107" s="2">
         <v>27.454464682363394</v>
       </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="30"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="22"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -5865,8 +5997,8 @@
       <c r="D108" s="2">
         <v>32.240656754119065</v>
       </c>
-      <c r="E108" s="27"/>
-      <c r="F108" s="30"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -5881,8 +6013,8 @@
       <c r="D109" s="2">
         <v>36.458392022085754</v>
       </c>
-      <c r="E109" s="27"/>
-      <c r="F109" s="30"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="22"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -5897,8 +6029,8 @@
       <c r="D110" s="2">
         <v>44.900161899622233</v>
       </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="30"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -5913,11 +6045,16 @@
       <c r="D111" s="2">
         <v>46.839250910939754</v>
       </c>
-      <c r="E111" s="27"/>
-      <c r="F111" s="30"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="E12:E21"/>
     <mergeCell ref="E92:E101"/>
     <mergeCell ref="E102:E111"/>
     <mergeCell ref="G7:H7"/>
@@ -5927,15 +6064,1765 @@
     <mergeCell ref="E62:E71"/>
     <mergeCell ref="E72:E81"/>
     <mergeCell ref="E82:E91"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="E12:E21"/>
     <mergeCell ref="E22:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C6D514-C41D-40AB-B74D-181A77179973}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="34">
+        <v>13.229018492176387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="34">
+        <v>32.972972972972975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="34">
+        <v>37.032144429766625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="34">
+        <v>40.712126301645952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="34">
+        <v>41.818734793187346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="34">
+        <v>42.607428987618356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="34">
+        <v>42.725080385852088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="34">
+        <v>43.848944591029024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="34">
+        <v>45.298392424576086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="34">
+        <v>6.1751152073732722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="34">
+        <v>9.0066225165562912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="34">
+        <v>11.254295532646049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="34">
+        <v>25.655172413793103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="34">
+        <v>0.55865921787709494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="34">
+        <v>8.8073394495412849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="34">
+        <v>9.8241985522233719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="34">
+        <v>16.494845360824741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="34">
+        <v>18.584070796460178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="34">
+        <v>31.100478468899524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="34">
+        <v>38.04347826086957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="34">
+        <v>5.241935483870968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="34">
+        <v>10.059880239520957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="34">
+        <v>19.890260631001372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="34">
+        <v>22.89855072463768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="34">
+        <v>27.493438320209972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="34">
+        <v>34.660033167495854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="34">
+        <v>44.796594134342477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="34">
+        <v>46.95837780149413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="34">
+        <v>50.759878419452889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="34">
+        <v>3.1770045385779122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="34">
+        <v>22.750642673521853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="34">
+        <v>33.541098558628754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="34">
+        <v>42.766151046405824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="34">
+        <v>44.148271553519372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="34">
+        <v>46.652977412731005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="34">
+        <v>49.171686746987952</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="34">
+        <v>49.762131303520455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="34">
+        <v>54.584837545126355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="34">
+        <v>57.333333333333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="34">
+        <v>6.8479355488418934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="34">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="34">
+        <v>14.686825053995682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="34">
+        <v>19.188596491228072</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="34">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="34">
+        <v>39.121482498284145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="34">
+        <v>48.352626892252893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="34">
+        <v>4.9046321525885563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="34">
+        <v>14.076246334310852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="34">
+        <v>22.988505747126435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="34">
+        <v>24.644842495367509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="34">
+        <v>25.546875000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="34">
+        <v>27.298050139275766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="34">
+        <v>31.215970961887479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="34">
+        <v>31.319000581057526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="34">
+        <v>33.835845896147404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="34">
+        <v>6.9238377843719086</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="34">
+        <v>18.425460636515915</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="34">
+        <v>20.255474452554743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="34">
+        <v>38.066001534919423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="34">
+        <v>38.542766631467792</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="34">
+        <v>42.818057455540355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="34">
+        <v>47.550908090258673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="34">
+        <v>2.6845637583892619</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="34">
+        <v>4.6168958742632613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="34">
+        <v>28.719512195121951</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="34">
+        <v>32.343387470997683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="34">
+        <v>34.826203208556151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="34">
+        <v>35.055096418732781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="34">
+        <v>40.834575260804769</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="34">
+        <v>41.218274111675129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="34">
+        <v>46.462116468378213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="34">
+        <v>4.8034934497816595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="34">
+        <v>7.9801450935471561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="34">
+        <v>34.656942193408966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="34">
+        <v>48.86831275720165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="34">
+        <v>88.170241286863273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="34">
+        <v>94.200563834071687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="34">
+        <v>3.1722054380664653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="34">
+        <v>11.298838437170012</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="34">
+        <v>24.813948543482883</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="34">
+        <v>27.173913043478258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="34">
+        <v>27.453305662614884</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="34">
+        <v>27.454464682363394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="34">
+        <v>32.240656754119065</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="34">
+        <v>36.458392022085754</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="34">
+        <v>44.900161899622233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="34">
+        <v>46.839250910939754</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D111" xr:uid="{C96175DE-0830-41B1-80FB-AB23E0C9B7CF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2016"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954031F1-D87F-43FB-93D1-07F83B8FAC30}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="34">
+        <v>40.712126301645952</v>
+      </c>
+      <c r="D2" s="34">
+        <v>45.298392424576086</v>
+      </c>
+      <c r="E2" s="34">
+        <v>43.848944591029024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="34">
+        <v>6.1751152073732722</v>
+      </c>
+      <c r="D3" s="34">
+        <v>11.254295532646049</v>
+      </c>
+      <c r="E3" s="34">
+        <v>25.655172413793103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.55865921787709494</v>
+      </c>
+      <c r="D4" s="34">
+        <v>9.8241985522233719</v>
+      </c>
+      <c r="E4" s="34">
+        <v>31.100478468899524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="34">
+        <v>50.759878419452889</v>
+      </c>
+      <c r="D5" s="34">
+        <v>46.95837780149413</v>
+      </c>
+      <c r="E5" s="34">
+        <v>44.796594134342477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="34">
+        <v>33.541098558628754</v>
+      </c>
+      <c r="D6" s="34">
+        <v>44.148271553519372</v>
+      </c>
+      <c r="E6" s="34">
+        <v>46.652977412731005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34">
+        <v>48.352626892252893</v>
+      </c>
+      <c r="D7" s="34">
+        <v>39.121482498284145</v>
+      </c>
+      <c r="E7" s="34">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="34">
+        <v>24.644842495367509</v>
+      </c>
+      <c r="D8" s="34">
+        <v>31.319000581057526</v>
+      </c>
+      <c r="E8" s="34">
+        <v>25.546875000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="34">
+        <v>38.066001534919423</v>
+      </c>
+      <c r="D9" s="34">
+        <v>42.818057455540355</v>
+      </c>
+      <c r="E9" s="34">
+        <v>47.550908090258673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="34">
+        <v>28.719512195121951</v>
+      </c>
+      <c r="D10" s="34">
+        <v>32.343387470997683</v>
+      </c>
+      <c r="E10" s="34">
+        <v>40.834575260804769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="34">
+        <v>48.86831275720165</v>
+      </c>
+      <c r="D11" s="34">
+        <v>94.200563834071687</v>
+      </c>
+      <c r="E11" s="34">
+        <v>88.170241286863273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34">
+        <v>36.458392022085754</v>
+      </c>
+      <c r="D12" s="34">
+        <v>44.900161899622233</v>
+      </c>
+      <c r="E12" s="34">
+        <v>46.839250910939754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>